--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -51,7 +51,7 @@
     <t>13/04/2025</t>
   </si>
   <si>
-    <t>Medal</t>
+    <t>April Junior Competition</t>
   </si>
   <si>
     <t>Tenzing Lo</t>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -63,7 +63,7 @@
     <t>Matthew Owens</t>
   </si>
   <si>
-    <t>Louise Doyle</t>
+    <t>Louie Doyle</t>
   </si>
   <si>
     <t>Orlando Whatling</t>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Louie Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">1st Junior Competition </t>
+    <t xml:space="preserve">Junior Competition </t>
   </si>
   <si>
     <t>13/04/2025</t>
@@ -78,12 +78,27 @@
     <t>Carter Whatling</t>
   </si>
   <si>
-    <t>Junior Sixes 1st Competition</t>
+    <t>Junior Sixes Competition</t>
+  </si>
+  <si>
+    <t>April Junior Competition Sixes</t>
   </si>
   <si>
     <t>Milo Bearne</t>
   </si>
   <si>
+    <t>8/06/2025</t>
+  </si>
+  <si>
+    <t>July Junior Competition</t>
+  </si>
+  <si>
+    <t>July Junior Competition Sixes</t>
+  </si>
+  <si>
+    <t>Harry Taylor</t>
+  </si>
+  <si>
     <t>Table 1</t>
   </si>
   <si>
@@ -105,7 +120,7 @@
     <t>Next Competition</t>
   </si>
   <si>
-    <t>11th May 2024 - 13:00</t>
+    <t>13 July 2024 - 13:00</t>
   </si>
 </sst>
 </file>
@@ -1924,12 +1939,12 @@
         <v>11</v>
       </c>
       <c r="I10" t="s" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4">
         <v>45</v>
@@ -1949,85 +1964,183 @@
         <v>11</v>
       </c>
       <c r="I11" t="s" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
+      <c r="A12" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>50</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s" s="3">
+        <v>10</v>
+      </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
+      <c r="A13" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>57</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s" s="3">
+        <v>10</v>
+      </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
+      <c r="A14" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>65</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s" s="3">
+        <v>10</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
+      <c r="A15" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
+        <v>76</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="4">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="3">
+        <v>10</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
+      <c r="A16" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s" s="3">
+        <v>21</v>
+      </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
+      <c r="A17" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4">
+        <v>47</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s" s="3">
+        <v>21</v>
+      </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
+      <c r="A18" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4">
+        <v>53</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="3">
+        <v>21</v>
+      </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="6"/>
@@ -2037,8 +2150,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="6"/>
@@ -2286,7 +2399,7 @@
   <sheetData>
     <row r="1" ht="26.35" customHeight="1">
       <c r="A1" t="s" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2298,17 +2411,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="13">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" ht="15.15" customHeight="1">
       <c r="A3" t="s" s="16">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="17">
         <v>12.7</v>
@@ -2401,10 +2514,10 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="32">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s" s="32">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -2419,10 +2532,10 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="32">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="32">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\CheadleGolfAcademy\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="12800" windowHeight="10020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Players" sheetId="2" r:id="rId5"/>
-    <sheet name="Settings" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Players" sheetId="2" r:id="rId2"/>
+    <sheet name="Settings" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -121,33 +129,38 @@
   </si>
   <si>
     <t>13 July 2024 - 13:00</t>
+  </si>
+  <si>
+    <t>13/7/2025</t>
+  </si>
+  <si>
+    <t>August Junior Competition</t>
+  </si>
+  <si>
+    <t>Francis Chadwick</t>
+  </si>
+  <si>
+    <t>William Bailey</t>
+  </si>
+  <si>
+    <t>Junior Sixes Competitionn Sixes</t>
+  </si>
+  <si>
+    <t>Ronnie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -158,7 +171,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="Calibri"/>
@@ -167,11 +180,6 @@
       <sz val="11"/>
       <color indexed="13"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -200,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -500,115 +508,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,32 +614,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffadadad"/>
-      <rgbColor rgb="ff323232"/>
-      <rgbColor rgb="ffd6d6d6"/>
-      <rgbColor rgb="ff89847f"/>
-      <rgbColor rgb="ffa6a29f"/>
-      <rgbColor rgb="ffe3e3e3"/>
-      <rgbColor rgb="fff4f9f8"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFADADAD"/>
+      <rgbColor rgb="FF323232"/>
+      <rgbColor rgb="FFD6D6D6"/>
+      <rgbColor rgb="FF89847F"/>
+      <rgbColor rgb="FFA6A29F"/>
+      <rgbColor rgb="FFE3E3E3"/>
+      <rgbColor rgb="FFF4F9F8"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -844,7 +894,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -862,7 +912,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,7 +941,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,7 +966,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +991,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,7 +1016,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,7 +1041,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1066,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +1091,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1116,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1091,7 +1141,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,9 +1154,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1123,7 +1179,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1141,7 +1197,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1166,7 +1222,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,7 +1247,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,7 +1272,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1297,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1322,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1347,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1372,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,7 +1397,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,7 +1422,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,9 +1435,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1395,7 +1457,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1413,7 +1475,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1442,7 +1504,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1467,7 +1529,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1492,7 +1554,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1517,7 +1579,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,7 +1604,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1567,7 +1629,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1592,7 +1654,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1617,7 +1679,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1642,7 +1704,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1655,66 +1717,76 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.8516" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
@@ -1727,19 +1799,19 @@
       <c r="E2" s="4">
         <v>8</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4">
@@ -1752,19 +1824,19 @@
       <c r="E3" s="4">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" t="s" s="3">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="3">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4">
@@ -1779,21 +1851,21 @@
       <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" t="s" s="3">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" t="s" s="3">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s" s="3">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="4">
@@ -1806,19 +1878,19 @@
       <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" t="s" s="3">
+      <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4">
@@ -1831,19 +1903,19 @@
       <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" t="s" s="3">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" t="s" s="3">
+      <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s" s="3">
+      <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4">
@@ -1856,19 +1928,19 @@
       <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" t="s" s="3">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" t="s" s="3">
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s" s="3">
+      <c r="I7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4">
@@ -1881,19 +1953,19 @@
       <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" t="s" s="3">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" t="s" s="3">
+      <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="s" s="3">
+      <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4">
@@ -1906,19 +1978,19 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" t="s" s="3">
+      <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I9" t="s" s="3">
+      <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4">
@@ -1931,19 +2003,19 @@
       <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" t="s" s="3">
+      <c r="H10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s" s="3">
+      <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="4">
@@ -1956,19 +2028,19 @@
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" t="s" s="3">
+      <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I11" t="s" s="3">
+      <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4">
@@ -1981,19 +2053,19 @@
       <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" t="s" s="3">
+      <c r="H12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" t="s" s="3">
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4">
@@ -2006,19 +2078,19 @@
       <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" t="s" s="3">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" t="s" s="3">
+      <c r="H13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I13" t="s" s="3">
+      <c r="I13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="4">
@@ -2031,19 +2103,19 @@
       <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" t="s" s="3">
+      <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" t="s" s="3">
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4">
@@ -2056,19 +2128,19 @@
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" t="s" s="3">
+      <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" t="s" s="3">
+      <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I15" t="s" s="3">
+      <c r="I15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" t="s" s="3">
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4">
@@ -2081,19 +2153,19 @@
       <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" t="s" s="3">
+      <c r="H16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I16" t="s" s="3">
+      <c r="I16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" t="s" s="3">
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="4">
@@ -2106,19 +2178,19 @@
       <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" t="s" s="3">
+      <c r="H17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I17" t="s" s="3">
+      <c r="I17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" t="s" s="3">
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4">
@@ -2131,73 +2203,143 @@
       <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="F18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" t="s" s="3">
+      <c r="H18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I18" t="s" s="3">
+      <c r="I18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7">
+        <v>45</v>
+      </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+      <c r="H19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7">
+        <v>47</v>
+      </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="H20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>58</v>
+      </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
+      <c r="H21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="34">
+        <v>28</v>
+      </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
+      <c r="H22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="7">
+        <v>44</v>
+      </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
+      <c r="H23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2205,10 +2347,10 @@
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2219,7 +2361,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2230,7 +2372,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2241,7 +2383,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2252,7 +2394,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2263,7 +2405,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2274,7 +2416,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2285,7 +2427,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2296,7 +2438,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2307,7 +2449,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2318,7 +2460,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2329,7 +2471,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2340,7 +2482,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2351,7 +2493,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2362,7 +2504,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2374,8 +2516,8 @@
       <c r="I39" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181100000000002" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2383,115 +2525,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="8" customWidth="1"/>
+    <col min="1" max="6" width="16.36328125" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="16.36328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.35" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" ht="15.4" customHeight="1">
-      <c r="A2" t="s" s="12">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="13">
+      <c r="B2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s" s="13">
+      <c r="C2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="15.15" customHeight="1">
-      <c r="A3" t="s" s="16">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="14">
         <v>12.7</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" ht="14.8" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" ht="14.8" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" ht="14.8" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" ht="14.8" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" ht="14.8" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" ht="14.8" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" ht="14.8" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" ht="15.05" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2499,100 +2641,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="24.3516" style="31" customWidth="1"/>
-    <col min="3" max="5" width="10.1719" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="10.1719" style="31" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" style="28" customWidth="1"/>
+    <col min="3" max="6" width="10.1796875" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="10.1796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s" s="32">
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="32">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s" s="32">
+      <c r="B3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Settings</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -134,19 +134,19 @@
     <t>13/7/2025</t>
   </si>
   <si>
-    <t>August Junior Competition</t>
-  </si>
-  <si>
     <t>Francis Chadwick</t>
   </si>
   <si>
     <t>William Bailey</t>
   </si>
   <si>
-    <t>Junior Sixes Competitionn Sixes</t>
-  </si>
-  <si>
     <t>Ronnie</t>
+  </si>
+  <si>
+    <t>June Junior Competition</t>
+  </si>
+  <si>
+    <t>June Junior Competition Sixes</t>
   </si>
 </sst>
 </file>
@@ -595,6 +595,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,8 +606,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2061,7 +2061,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2086,7 +2086,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2111,7 +2111,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2136,7 +2136,7 @@
         <v>24</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2161,7 +2161,7 @@
         <v>24</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2186,7 +2186,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2211,7 +2211,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2236,12 +2236,12 @@
         <v>36</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="7">
         <v>47</v>
@@ -2261,7 +2261,7 @@
         <v>36</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2286,14 +2286,14 @@
         <v>36</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="34">
+      <c r="A22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="31">
         <v>28</v>
       </c>
       <c r="C22" s="7"/>
@@ -2311,12 +2311,12 @@
         <v>36</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="7">
         <v>44</v>
@@ -2336,7 +2336,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2540,13 +2540,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -182,7 +182,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +205,42 @@
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -523,15 +559,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -595,8 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,6 +638,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1738,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1786,734 +1836,734 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="36">
         <v>47</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4">
+      <c r="C2" s="37"/>
+      <c r="D2" s="36">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="36">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="36">
         <v>53</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4">
+      <c r="C3" s="37"/>
+      <c r="D3" s="36">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="36">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="36">
         <v>55</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="36">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="36">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="36">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="36">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="36">
         <v>56</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4">
+      <c r="C5" s="37"/>
+      <c r="D5" s="36">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="36">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="36">
         <v>60</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4">
+      <c r="C6" s="37"/>
+      <c r="D6" s="36">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="36">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="36">
         <v>74</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4">
+      <c r="C7" s="37"/>
+      <c r="D7" s="36">
         <v>6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="36">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="36">
         <v>78</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4">
+      <c r="C8" s="37"/>
+      <c r="D8" s="36">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="36">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="36">
         <v>79</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
+      <c r="C9" s="37"/>
+      <c r="D9" s="36">
         <v>8</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="36">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="39">
         <v>30</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4">
+      <c r="C10" s="40"/>
+      <c r="D10" s="39">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="39">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="40"/>
+      <c r="H10" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="39">
         <v>45</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
+      <c r="C11" s="40"/>
+      <c r="D11" s="39">
         <v>2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="39">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="44">
         <v>50</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4">
+      <c r="C12" s="45"/>
+      <c r="D12" s="44">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="44">
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="45"/>
+      <c r="H12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="44">
         <v>57</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4">
+      <c r="C13" s="45"/>
+      <c r="D13" s="44">
         <v>2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="44">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="45"/>
+      <c r="H13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="44">
         <v>65</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4">
+      <c r="C14" s="45"/>
+      <c r="D14" s="44">
         <v>3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="44">
         <v>2</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="45"/>
+      <c r="H14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="44">
         <v>76</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4">
+      <c r="C15" s="45"/>
+      <c r="D15" s="44">
         <v>4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="44">
         <v>1</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="45"/>
+      <c r="H15" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="33">
         <v>30</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4">
+      <c r="C16" s="34"/>
+      <c r="D16" s="33">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="33">
         <v>3</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="33">
         <v>47</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4">
+      <c r="C17" s="34"/>
+      <c r="D17" s="33">
         <v>2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="33">
         <v>2</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="33">
         <v>53</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4">
+      <c r="C18" s="34"/>
+      <c r="D18" s="33">
         <v>3</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="33">
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="47">
         <v>45</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
+      <c r="C19" s="47"/>
+      <c r="D19" s="47">
         <v>1</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="47">
         <v>3</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="47"/>
+      <c r="H19" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="47">
         <v>47</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47">
         <v>2</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="47">
         <v>2</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="47">
         <v>58</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47">
         <v>3</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="47">
         <v>1</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="49">
         <v>28</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
+      <c r="C22" s="42"/>
+      <c r="D22" s="42">
         <v>1</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="42">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="42"/>
+      <c r="H22" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="42">
         <v>44</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42">
         <v>2</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="42"/>
+      <c r="H23" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181100000000002" footer="0.3"/>
@@ -2535,98 +2585,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="16.36328125" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="16.36328125" style="8"/>
+    <col min="1" max="6" width="16.36328125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="16.36328125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>12.7</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2648,89 +2698,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" style="28" customWidth="1"/>
-    <col min="3" max="6" width="10.1796875" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="10.1796875" style="28"/>
+    <col min="1" max="1" width="21.453125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" style="26" customWidth="1"/>
+    <col min="3" max="6" width="10.1796875" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="10.1796875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -140,13 +140,13 @@
     <t>William Bailey</t>
   </si>
   <si>
-    <t>Ronnie</t>
-  </si>
-  <si>
     <t>June Junior Competition</t>
   </si>
   <si>
     <t>June Junior Competition Sixes</t>
+  </si>
+  <si>
+    <t>Ronnie Daley</t>
   </si>
 </sst>
 </file>
@@ -629,15 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -656,6 +647,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1836,556 +1836,556 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="33">
         <v>47</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="33">
         <v>1</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="33">
         <v>8</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="33">
         <v>53</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="36">
+      <c r="C3" s="34"/>
+      <c r="D3" s="33">
         <v>2</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="33">
         <v>7</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="33">
         <v>55</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="33">
         <v>0</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="33">
         <v>3</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="33">
         <v>6</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="33">
         <v>0</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="33">
         <v>56</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="36">
+      <c r="C5" s="34"/>
+      <c r="D5" s="33">
         <v>4</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="33">
         <v>5</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="33">
         <v>60</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="36">
+      <c r="C6" s="34"/>
+      <c r="D6" s="33">
         <v>5</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="33">
         <v>4</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="35" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="33">
         <v>74</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36">
+      <c r="C7" s="34"/>
+      <c r="D7" s="33">
         <v>6</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="33">
         <v>3</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="33">
         <v>78</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="36">
+      <c r="C8" s="34"/>
+      <c r="D8" s="33">
         <v>7</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="33">
         <v>2</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="35" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="33">
         <v>79</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="36">
+      <c r="C9" s="34"/>
+      <c r="D9" s="33">
         <v>8</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="36">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="39">
+      <c r="C10" s="37"/>
+      <c r="D10" s="36">
         <v>1</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="36">
         <v>2</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="36">
         <v>45</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="39">
+      <c r="C11" s="37"/>
+      <c r="D11" s="36">
         <v>2</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="36">
         <v>1</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="38" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="41">
         <v>50</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="44">
+      <c r="C12" s="42"/>
+      <c r="D12" s="41">
         <v>1</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="41">
         <v>4</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="43" t="s">
+      <c r="G12" s="42"/>
+      <c r="H12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="41">
+        <v>57</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41">
+        <v>2</v>
+      </c>
+      <c r="E13" s="41">
+        <v>3</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="41">
+        <v>65</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41">
+        <v>3</v>
+      </c>
+      <c r="E14" s="41">
+        <v>2</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="41">
+        <v>76</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41">
+        <v>4</v>
+      </c>
+      <c r="E15" s="41">
+        <v>1</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="30">
+        <v>30</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="30">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30">
+        <v>3</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="30">
+        <v>47</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30">
+        <v>2</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="30">
+        <v>53</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="30">
+        <v>3</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="44">
+        <v>45</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44">
+        <v>1</v>
+      </c>
+      <c r="E19" s="44">
+        <v>3</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="44">
+        <v>47</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44">
+        <v>2</v>
+      </c>
+      <c r="E20" s="44">
+        <v>2</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="44">
-        <v>57</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="44">
+      <c r="B21" s="44">
+        <v>58</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44">
+        <v>3</v>
+      </c>
+      <c r="E21" s="44">
+        <v>1</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="46">
+        <v>28</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39">
+        <v>1</v>
+      </c>
+      <c r="E22" s="39">
         <v>2</v>
       </c>
-      <c r="E13" s="44">
-        <v>3</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="44">
-        <v>65</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="44">
-        <v>3</v>
-      </c>
-      <c r="E14" s="44">
+      <c r="F22" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="39">
+        <v>44</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39">
         <v>2</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="44">
-        <v>76</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44">
-        <v>4</v>
-      </c>
-      <c r="E15" s="44">
+      <c r="E23" s="39">
         <v>1</v>
       </c>
-      <c r="F15" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="33">
-        <v>30</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="33">
-        <v>1</v>
-      </c>
-      <c r="E16" s="33">
-        <v>3</v>
-      </c>
-      <c r="F16" s="32" t="s">
+      <c r="F23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="33">
-        <v>47</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33">
-        <v>2</v>
-      </c>
-      <c r="E17" s="33">
-        <v>2</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="33">
-        <v>53</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33">
-        <v>3</v>
-      </c>
-      <c r="E18" s="33">
-        <v>1</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="47">
-        <v>45</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47">
-        <v>1</v>
-      </c>
-      <c r="E19" s="47">
-        <v>3</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="46" t="s">
+      <c r="G23" s="39"/>
+      <c r="H23" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="47">
-        <v>47</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47">
-        <v>2</v>
-      </c>
-      <c r="E20" s="47">
-        <v>2</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="47">
-        <v>58</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47">
-        <v>3</v>
-      </c>
-      <c r="E21" s="47">
-        <v>1</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="49">
-        <v>28</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42">
-        <v>1</v>
-      </c>
-      <c r="E22" s="42">
-        <v>2</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="42">
-        <v>44</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42">
-        <v>2</v>
-      </c>
-      <c r="E23" s="42">
-        <v>1</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="38" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2590,13 +2590,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="12800" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="12795" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Louie Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">Junior Competition </t>
-  </si>
-  <si>
     <t>13/04/2025</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Carter Whatling</t>
   </si>
   <si>
-    <t>Junior Sixes Competition</t>
-  </si>
-  <si>
     <t>April Junior Competition Sixes</t>
   </si>
   <si>
@@ -147,6 +141,24 @@
   </si>
   <si>
     <t>Ronnie Daley</t>
+  </si>
+  <si>
+    <t>Junior Competition (April)</t>
+  </si>
+  <si>
+    <t>Junior Sixes Competition (April)</t>
+  </si>
+  <si>
+    <t>Junior Competition (June)</t>
+  </si>
+  <si>
+    <t>Junior Sixes Competition (June)</t>
+  </si>
+  <si>
+    <t>Junior Competition (July)</t>
+  </si>
+  <si>
+    <t>Junior Sixes Competition (July)</t>
   </si>
 </sst>
 </file>
@@ -1789,24 +1801,24 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
@@ -1850,19 +1862,19 @@
         <v>8</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="32" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>13</v>
       </c>
       <c r="B3" s="33">
         <v>53</v>
@@ -1875,26 +1887,24 @@
         <v>7</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="33">
         <v>55</v>
       </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
+      <c r="C4" s="33"/>
       <c r="D4" s="33">
         <v>3</v>
       </c>
@@ -1902,21 +1912,19 @@
         <v>6</v>
       </c>
       <c r="F4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="33">
-        <v>0</v>
-      </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="33">
         <v>56</v>
@@ -1929,19 +1937,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="33">
         <v>60</v>
@@ -1954,19 +1962,19 @@
         <v>4</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="33">
         <v>74</v>
@@ -1979,19 +1987,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="33">
         <v>78</v>
@@ -2004,19 +2012,19 @@
         <v>2</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="33">
         <v>79</v>
@@ -2029,19 +2037,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="36">
         <v>30</v>
@@ -2054,19 +2062,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="36">
         <v>45</v>
@@ -2079,17 +2087,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>9</v>
       </c>
@@ -2104,19 +2112,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="41">
         <v>57</v>
@@ -2129,19 +2137,19 @@
         <v>3</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="41">
         <v>65</v>
@@ -2154,19 +2162,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="41">
         <v>76</v>
@@ -2179,19 +2187,19 @@
         <v>1</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="30">
         <v>30</v>
@@ -2204,19 +2212,19 @@
         <v>3</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="30">
         <v>47</v>
@@ -2229,19 +2237,19 @@
         <v>2</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="30">
         <v>53</v>
@@ -2254,17 +2262,17 @@
         <v>1</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>9</v>
       </c>
@@ -2279,19 +2287,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="44">
         <v>47</v>
@@ -2304,19 +2312,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="44">
         <v>58</v>
@@ -2329,19 +2337,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="46">
         <v>28</v>
@@ -2354,19 +2362,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>38</v>
       </c>
       <c r="B23" s="39">
         <v>44</v>
@@ -2379,17 +2387,17 @@
         <v>1</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2400,7 +2408,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2411,7 +2419,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2422,7 +2430,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2433,7 +2441,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2444,7 +2452,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2455,7 +2463,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2466,7 +2474,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2477,7 +2485,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2488,7 +2496,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2499,7 +2507,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2510,7 +2518,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2521,7 +2529,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2532,7 +2540,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2543,7 +2551,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2554,7 +2562,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2583,37 +2591,37 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="16.36328125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="16.36328125" style="6"/>
+    <col min="1" max="6" width="16.42578125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="16.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="49"/>
     </row>
-    <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="15.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="12">
         <v>12.7</v>
@@ -2622,56 +2630,56 @@
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
@@ -2696,86 +2704,86 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" style="26" customWidth="1"/>
-    <col min="3" max="6" width="10.1796875" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="10.1796875" style="26"/>
+    <col min="1" max="1" width="21.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="26" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="10.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="12795" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="12800" windowHeight="10020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Next Competition</t>
   </si>
   <si>
-    <t>13 July 2024 - 13:00</t>
-  </si>
-  <si>
     <t>13/7/2025</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Junior Sixes Competition (July)</t>
+  </si>
+  <si>
+    <t>10 August 2024 All Members Day - Time TBC</t>
   </si>
 </sst>
 </file>
@@ -1800,25 +1800,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="32" t="s">
@@ -1872,7 +1872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>12</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="32" t="s">
@@ -1897,7 +1897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="32" t="s">
@@ -1922,7 +1922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>14</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="32" t="s">
@@ -1947,7 +1947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>15</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="32" t="s">
@@ -1972,7 +1972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>16</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="32" t="s">
@@ -1997,7 +1997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>17</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="32" t="s">
@@ -2022,7 +2022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="32" t="s">
@@ -2047,7 +2047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>19</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="35" t="s">
@@ -2072,7 +2072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>21</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="35" t="s">
@@ -2097,7 +2097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>9</v>
       </c>
@@ -2112,17 +2112,17 @@
         <v>4</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="40" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>14</v>
       </c>
@@ -2137,17 +2137,17 @@
         <v>3</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="40" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>16</v>
       </c>
@@ -2162,17 +2162,17 @@
         <v>2</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>18</v>
       </c>
@@ -2187,17 +2187,17 @@
         <v>1</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>19</v>
       </c>
@@ -2212,17 +2212,17 @@
         <v>3</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="29" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>25</v>
       </c>
@@ -2237,17 +2237,17 @@
         <v>2</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="29" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>21</v>
       </c>
@@ -2262,17 +2262,17 @@
         <v>1</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="29" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
         <v>9</v>
       </c>
@@ -2287,19 +2287,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="44">
         <v>47</v>
@@ -2312,17 +2312,17 @@
         <v>2</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
         <v>14</v>
       </c>
@@ -2337,19 +2337,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="46">
         <v>28</v>
@@ -2362,19 +2362,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="39">
         <v>44</v>
@@ -2387,17 +2387,17 @@
         <v>1</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2408,7 +2408,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2419,7 +2419,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2430,7 +2430,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2441,7 +2441,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2452,7 +2452,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2463,7 +2463,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2474,7 +2474,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2485,7 +2485,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2496,7 +2496,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2507,7 +2507,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2518,7 +2518,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2529,7 +2529,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2540,7 +2540,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2551,7 +2551,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2562,7 +2562,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2589,15 +2589,17 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="16.42578125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="16.42578125" style="6"/>
+    <col min="1" max="6" width="16.453125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="16.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>26</v>
       </c>
@@ -2606,7 +2608,7 @@
       <c r="D1" s="48"/>
       <c r="E1" s="49"/>
     </row>
-    <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2621,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
@@ -2630,56 +2632,56 @@
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
@@ -2702,17 +2704,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="26" customWidth="1"/>
-    <col min="3" max="6" width="10.140625" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="10.140625" style="26"/>
+    <col min="1" max="1" width="21.453125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="38" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.1796875" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="10.1796875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>30</v>
       </c>
@@ -2723,67 +2727,67 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Joined Date</t>
   </si>
   <si>
-    <t>Craig Pickerill</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -158,18 +155,52 @@
     <t>Junior Sixes Competition (July)</t>
   </si>
   <si>
-    <t>10 August 2024 All Members Day - Time TBC</t>
+    <t>William Whitehead</t>
+  </si>
+  <si>
+    <t>Junior Competition (August)</t>
+  </si>
+  <si>
+    <t>10/08/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August Junior Competition </t>
+  </si>
+  <si>
+    <t>August Junior Competition Sixes</t>
+  </si>
+  <si>
+    <t>Junior Sixes (August)</t>
+  </si>
+  <si>
+    <t>Charlie Bircher</t>
+  </si>
+  <si>
+    <t>George Abah</t>
+  </si>
+  <si>
+    <t>Bobby Sharples</t>
+  </si>
+  <si>
+    <t>14 September 2025 | 13:00 - 13:30 Tee Times | Autumn Series Round 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -193,8 +224,147 @@
       <color indexed="13"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +425,193 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -567,33 +922,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,7 +1264,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,20 +1316,97 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="42" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="42" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="42" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="42" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="38" xfId="34" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="43" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="43" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="43" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="43" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="43" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="20" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="23" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="26" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="29" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="32" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="21" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="24" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="27" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="30" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="33" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="37"/>
+    <cellStyle name="60% - Accent2 2" xfId="38"/>
+    <cellStyle name="60% - Accent3 2" xfId="39"/>
+    <cellStyle name="60% - Accent4 2" xfId="40"/>
+    <cellStyle name="60% - Accent5 2" xfId="41"/>
+    <cellStyle name="60% - Accent6 2" xfId="42"/>
+    <cellStyle name="Accent1" xfId="16" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="19" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="22" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="25" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="28" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="31" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="14" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="34"/>
+    <cellStyle name="Note 2" xfId="36"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="15" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1801,25 +2537,25 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43" style="58" customWidth="1"/>
     <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.81640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.81640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1847,8 +2583,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A2" s="51" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="33">
@@ -1862,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="32" t="s">
@@ -1872,8 +2608,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A3" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="33">
@@ -1887,7 +2623,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="32" t="s">
@@ -1897,8 +2633,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A4" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="33">
@@ -1912,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="32" t="s">
@@ -1922,8 +2658,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A5" s="51" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="33">
@@ -1937,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="32" t="s">
@@ -1947,8 +2683,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A6" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="33">
@@ -1962,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="32" t="s">
@@ -1972,8 +2708,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A7" s="51" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="33">
@@ -1987,7 +2723,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="32" t="s">
@@ -1997,8 +2733,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A8" s="51" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="33">
@@ -2012,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="32" t="s">
@@ -2022,8 +2758,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A9" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="33">
@@ -2037,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="32" t="s">
@@ -2047,8 +2783,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A10" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="36">
@@ -2062,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="35" t="s">
@@ -2072,8 +2808,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A11" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="36">
@@ -2087,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="35" t="s">
@@ -2097,8 +2833,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="41">
@@ -2112,18 +2848,18 @@
         <v>4</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="40" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A13" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="41">
@@ -2137,18 +2873,18 @@
         <v>3</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="40" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A14" s="53" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="41">
@@ -2162,18 +2898,18 @@
         <v>2</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A15" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="41">
@@ -2187,18 +2923,18 @@
         <v>1</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="40" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A16" s="54" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="30">
@@ -2212,18 +2948,18 @@
         <v>3</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="29" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A17" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="30">
@@ -2237,18 +2973,18 @@
         <v>2</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="29" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A18" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="30">
@@ -2262,18 +2998,18 @@
         <v>1</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="29" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A19" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="44">
@@ -2287,19 +3023,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43" t="s">
-        <v>34</v>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A20" s="55" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="44">
         <v>47</v>
@@ -2312,18 +3048,18 @@
         <v>2</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A21" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="44">
@@ -2337,21 +3073,21 @@
         <v>1</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="46">
+    <row r="22" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A22" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="45">
         <v>28</v>
       </c>
       <c r="C22" s="39"/>
@@ -2362,164 +3098,304 @@
         <v>2</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="62">
+        <v>44</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62">
+        <v>2</v>
+      </c>
+      <c r="E23" s="62">
+        <v>1</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" thickTop="1">
+      <c r="A24" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="69">
+        <v>38</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69">
+        <v>1</v>
+      </c>
+      <c r="E24" s="69">
+        <v>5</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="69"/>
+      <c r="H24" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
+      <c r="A25" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
+      <c r="A26" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
+      <c r="A27" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="A28" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5">
+        <v>44</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
+      <c r="A29" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="59">
+        <v>32</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59">
+        <v>1</v>
+      </c>
+      <c r="E29" s="59">
+        <v>5</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
+      <c r="A30" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="59">
+        <v>34</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59">
+        <v>2</v>
+      </c>
+      <c r="E30" s="59">
+        <v>4</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
+      <c r="A31" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="59">
         <v>35</v>
       </c>
-      <c r="B23" s="39">
-        <v>44</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39">
+      <c r="C31" s="59"/>
+      <c r="D31" s="59">
+        <v>3</v>
+      </c>
+      <c r="E31" s="59">
+        <v>3</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="59"/>
+      <c r="H31" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1">
+      <c r="A32" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="59">
+        <v>39</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59">
+        <v>4</v>
+      </c>
+      <c r="E32" s="59">
         <v>2</v>
       </c>
-      <c r="E23" s="39">
+      <c r="F32" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A33" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="79">
+        <v>46</v>
+      </c>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79">
+        <v>5</v>
+      </c>
+      <c r="E33" s="79">
         <v>1</v>
       </c>
-      <c r="F23" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
+      <c r="F33" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="79"/>
+      <c r="H33" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" thickTop="1">
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="66"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1">
+      <c r="A35" s="57"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2529,8 +3405,8 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:9" ht="15" customHeight="1">
+      <c r="A36" s="57"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2540,8 +3416,8 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:9" ht="15" customHeight="1">
+      <c r="A37" s="57"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2551,8 +3427,8 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:9" ht="15" customHeight="1">
+      <c r="A38" s="57"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2562,8 +3438,8 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
+    <row r="39" spans="1:9" ht="15" customHeight="1">
+      <c r="A39" s="57"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2575,7 +3451,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181100000000002" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2590,25 +3466,25 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="17.5" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="16.453125" style="6" customWidth="1"/>
     <col min="7" max="16384" width="16.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:5" ht="26.5" customHeight="1">
+      <c r="A1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.4" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2621,10 +3497,8 @@
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>29</v>
-      </c>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="11"/>
       <c r="B3" s="12">
         <v>12.7</v>
       </c>
@@ -2632,56 +3506,56 @@
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="14.9" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.9" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.9" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.9" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.9" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.9" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.9" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
@@ -2705,89 +3579,89 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.453125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="38" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.453125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10.1796875" style="26" customWidth="1"/>
     <col min="7" max="16384" width="10.1796875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1">
       <c r="A1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>31</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="50" windowWidth="12800" windowHeight="10020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="12795" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,30 +137,9 @@
     <t>Ronnie Daley</t>
   </si>
   <si>
-    <t>Junior Competition (April)</t>
-  </si>
-  <si>
-    <t>Junior Sixes Competition (April)</t>
-  </si>
-  <si>
-    <t>Junior Competition (June)</t>
-  </si>
-  <si>
-    <t>Junior Sixes Competition (June)</t>
-  </si>
-  <si>
-    <t>Junior Competition (July)</t>
-  </si>
-  <si>
-    <t>Junior Sixes Competition (July)</t>
-  </si>
-  <si>
     <t>William Whitehead</t>
   </si>
   <si>
-    <t>Junior Competition (August)</t>
-  </si>
-  <si>
     <t>10/08/2025</t>
   </si>
   <si>
@@ -170,9 +149,6 @@
     <t>August Junior Competition Sixes</t>
   </si>
   <si>
-    <t>Junior Sixes (August)</t>
-  </si>
-  <si>
     <t>Charlie Bircher</t>
   </si>
   <si>
@@ -183,6 +159,30 @@
   </si>
   <si>
     <t>14 September 2025 | 13:00 - 13:30 Tee Times | Autumn Series Round 1</t>
+  </si>
+  <si>
+    <t>April 9 Hole</t>
+  </si>
+  <si>
+    <t>April Sixes</t>
+  </si>
+  <si>
+    <t>June 9 Hole</t>
+  </si>
+  <si>
+    <t>June Sixes</t>
+  </si>
+  <si>
+    <t>July 9 Hole</t>
+  </si>
+  <si>
+    <t>July Sixes</t>
+  </si>
+  <si>
+    <t>August 9 Hole</t>
+  </si>
+  <si>
+    <t>August Sixes</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1178,6 +1178,127 @@
       </right>
       <top style="thin">
         <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thick">
         <color rgb="FFFF0000"/>
@@ -1230,7 +1351,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,15 +1438,6 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1349,7 +1461,6 @@
     <xf numFmtId="49" fontId="0" fillId="42" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="24" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="42" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="42" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="24" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1362,6 +1473,28 @@
     <xf numFmtId="49" fontId="0" fillId="43" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="43" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="43" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="43" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -2536,26 +2669,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43" style="58" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="43" style="55" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2584,7 +2717,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="33">
@@ -2598,7 +2731,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="32" t="s">
@@ -2609,7 +2742,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="33">
@@ -2623,7 +2756,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="32" t="s">
@@ -2634,7 +2767,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="33">
@@ -2648,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="32" t="s">
@@ -2659,7 +2792,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="33">
@@ -2673,7 +2806,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="32" t="s">
@@ -2684,7 +2817,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="33">
@@ -2698,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="32" t="s">
@@ -2709,7 +2842,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="33">
@@ -2723,7 +2856,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="32" t="s">
@@ -2734,7 +2867,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="33">
@@ -2748,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="32" t="s">
@@ -2759,7 +2892,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="33">
@@ -2773,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="32" t="s">
@@ -2784,7 +2917,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="36">
@@ -2798,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="35" t="s">
@@ -2809,7 +2942,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="36">
@@ -2823,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="35" t="s">
@@ -2834,7 +2967,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="41">
@@ -2848,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="40" t="s">
@@ -2859,7 +2992,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="41">
@@ -2873,7 +3006,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="40" t="s">
@@ -2884,7 +3017,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="50" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="41">
@@ -2898,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="40" t="s">
@@ -2909,7 +3042,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="41">
@@ -2923,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="40" t="s">
@@ -2934,7 +3067,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="51" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="30">
@@ -2948,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="29" t="s">
@@ -2959,7 +3092,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="30">
@@ -2973,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="29" t="s">
@@ -2984,7 +3117,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="51" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="30">
@@ -2998,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="29" t="s">
@@ -3009,7 +3142,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="44">
@@ -3023,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="43" t="s">
@@ -3034,7 +3167,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="44">
@@ -3048,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="43" t="s">
@@ -3059,7 +3192,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="44">
@@ -3073,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="43" t="s">
@@ -3084,7 +3217,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="53" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="45">
@@ -3098,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="38" t="s">
@@ -3109,57 +3242,57 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="59">
         <v>44</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62">
+      <c r="C23" s="59"/>
+      <c r="D23" s="59">
         <v>2</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="59">
         <v>1</v>
       </c>
-      <c r="F23" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63" t="s">
+      <c r="F23" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" thickTop="1">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="66">
         <v>38</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66">
         <v>1</v>
       </c>
-      <c r="E24" s="69">
+      <c r="E24" s="82">
         <v>5</v>
       </c>
-      <c r="F24" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="72" t="s">
-        <v>47</v>
+      <c r="F24" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="86"/>
+      <c r="H24" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="69" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="5">
@@ -3169,22 +3302,22 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="83">
         <v>1</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="74" t="s">
-        <v>47</v>
+      <c r="F25" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="87"/>
+      <c r="H25" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="70" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="5">
@@ -3194,22 +3327,22 @@
       <c r="D26" s="5">
         <v>4</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="83">
         <v>2</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="74" t="s">
-        <v>47</v>
+      <c r="F26" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="87"/>
+      <c r="H26" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="70" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="5">
@@ -3219,23 +3352,23 @@
       <c r="D27" s="5">
         <v>3</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="83">
         <v>3</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="74" t="s">
-        <v>47</v>
+      <c r="F27" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="87"/>
+      <c r="H27" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="70" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="73" t="s">
-        <v>44</v>
+      <c r="A28" s="69" t="s">
+        <v>38</v>
       </c>
       <c r="B28" s="5">
         <v>44</v>
@@ -3244,158 +3377,158 @@
       <c r="D28" s="5">
         <v>2</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="83">
         <v>4</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="49" t="s">
+      <c r="F28" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="87"/>
+      <c r="H28" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
+      <c r="A29" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="56">
+        <v>32</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56">
+        <v>1</v>
+      </c>
+      <c r="E29" s="84">
+        <v>5</v>
+      </c>
+      <c r="F29" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="88"/>
+      <c r="H29" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
+      <c r="A30" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="56">
+        <v>34</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56">
+        <v>2</v>
+      </c>
+      <c r="E30" s="84">
+        <v>4</v>
+      </c>
+      <c r="F30" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="88"/>
+      <c r="H30" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
+      <c r="A31" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="56">
+        <v>35</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56">
+        <v>3</v>
+      </c>
+      <c r="E31" s="84">
+        <v>3</v>
+      </c>
+      <c r="F31" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="88"/>
+      <c r="H31" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1">
+      <c r="A32" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="56">
+        <v>39</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56">
+        <v>4</v>
+      </c>
+      <c r="E32" s="84">
+        <v>2</v>
+      </c>
+      <c r="F32" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="88"/>
+      <c r="H32" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A33" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="75">
         <v>46</v>
       </c>
-      <c r="I28" s="74" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="59">
-        <v>32</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59">
+      <c r="C33" s="75"/>
+      <c r="D33" s="75">
+        <v>5</v>
+      </c>
+      <c r="E33" s="85">
         <v>1</v>
       </c>
-      <c r="E29" s="59">
-        <v>5</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="59">
-        <v>34</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59">
-        <v>2</v>
-      </c>
-      <c r="E30" s="59">
-        <v>4</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
-      <c r="A31" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="59">
-        <v>35</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59">
-        <v>3</v>
-      </c>
-      <c r="E31" s="59">
-        <v>3</v>
-      </c>
-      <c r="F31" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1">
-      <c r="A32" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="59">
+      <c r="F33" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="89"/>
+      <c r="H33" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59">
-        <v>4</v>
-      </c>
-      <c r="E32" s="59">
-        <v>2</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="79">
-        <v>46</v>
-      </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79">
-        <v>5</v>
-      </c>
-      <c r="E33" s="79">
-        <v>1</v>
-      </c>
-      <c r="F33" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="81" t="s">
-        <v>48</v>
+      <c r="I33" s="77" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="66"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="A35" s="57"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3406,7 +3539,7 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
-      <c r="A36" s="57"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3417,7 +3550,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
-      <c r="A37" s="57"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3428,7 +3561,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
-      <c r="A38" s="57"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3439,7 +3572,7 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
-      <c r="A39" s="57"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3469,20 +3602,20 @@
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="17.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="17.45" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="16.453125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="16.453125" style="6"/>
+    <col min="1" max="6" width="16.42578125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="16.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.5" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1">
+      <c r="A1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" ht="15.4" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -3497,7 +3630,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+    <row r="3" spans="1:5" ht="15.2" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12">
         <v>12.7</v>
@@ -3506,49 +3639,49 @@
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="14.9" customHeight="1">
+    <row r="4" spans="1:5" ht="14.85" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" ht="14.9" customHeight="1">
+    <row r="5" spans="1:5" ht="14.85" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:5" ht="14.9" customHeight="1">
+    <row r="6" spans="1:5" ht="14.85" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:5" ht="14.9" customHeight="1">
+    <row r="7" spans="1:5" ht="14.85" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" ht="14.9" customHeight="1">
+    <row r="8" spans="1:5" ht="14.85" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:5" ht="14.9" customHeight="1">
+    <row r="9" spans="1:5" ht="14.85" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" ht="14.9" customHeight="1">
+    <row r="10" spans="1:5" ht="14.85" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
@@ -3578,16 +3711,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="60.453125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.1796875" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="10.1796875" style="26"/>
+    <col min="1" max="1" width="21.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="10.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
@@ -3612,8 +3745,8 @@
       <c r="A3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="82" t="s">
-        <v>53</v>
+      <c r="B3" s="78" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="12795" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="12800" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -183,13 +183,37 @@
   </si>
   <si>
     <t>August Sixes</t>
+  </si>
+  <si>
+    <t>September 9 Hole</t>
+  </si>
+  <si>
+    <t>14/09/2025</t>
+  </si>
+  <si>
+    <t>September Junior Competition</t>
+  </si>
+  <si>
+    <t>Kinana</t>
+  </si>
+  <si>
+    <t>September Sixes</t>
+  </si>
+  <si>
+    <t>September Junior Competition Sixes</t>
+  </si>
+  <si>
+    <t>Elliot Cole</t>
+  </si>
+  <si>
+    <t>Stanley Habershow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -363,8 +387,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +636,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,14 +1386,13 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,17 +1482,12 @@
     <xf numFmtId="49" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="24" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="24" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="24" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="42" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="24" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="42" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1473,15 +1502,6 @@
     <xf numFmtId="49" fontId="0" fillId="43" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="43" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1495,6 +1515,25 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="43" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="44" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -2667,28 +2706,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43" style="55" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="43" style="53" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2717,870 +2756,1057 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>47</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="33">
+      <c r="C2" s="33"/>
+      <c r="D2" s="32">
         <v>1</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="32">
         <v>8</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>53</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33">
+      <c r="C3" s="33"/>
+      <c r="D3" s="32">
         <v>2</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>7</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>55</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32">
         <v>3</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>6</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>56</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33">
+      <c r="C5" s="33"/>
+      <c r="D5" s="32">
         <v>4</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>5</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>60</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33">
+      <c r="C6" s="33"/>
+      <c r="D6" s="32">
         <v>5</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>4</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>74</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33">
+      <c r="C7" s="33"/>
+      <c r="D7" s="32">
         <v>6</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>3</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>78</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33">
+      <c r="C8" s="33"/>
+      <c r="D8" s="32">
         <v>7</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>2</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="32" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>79</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="33">
+      <c r="C9" s="33"/>
+      <c r="D9" s="32">
         <v>8</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>1</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>30</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36">
+      <c r="C10" s="36"/>
+      <c r="D10" s="35">
         <v>1</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>2</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="35" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>45</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="36">
+      <c r="C11" s="36"/>
+      <c r="D11" s="35">
         <v>2</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>1</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="35" t="s">
+      <c r="G11" s="36"/>
+      <c r="H11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="40">
         <v>50</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41">
+      <c r="C12" s="41"/>
+      <c r="D12" s="40">
         <v>1</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="40">
         <v>4</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="40" t="s">
+      <c r="G12" s="41"/>
+      <c r="H12" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="40">
         <v>57</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="41">
+      <c r="C13" s="41"/>
+      <c r="D13" s="40">
         <v>2</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="40">
         <v>3</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="40" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="40">
         <v>65</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="41">
+      <c r="C14" s="41"/>
+      <c r="D14" s="40">
         <v>3</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="40">
         <v>2</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="40" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>76</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="41">
+      <c r="C15" s="41"/>
+      <c r="D15" s="40">
         <v>4</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="40">
         <v>1</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="40" t="s">
+      <c r="G15" s="41"/>
+      <c r="H15" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>30</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30">
+      <c r="C16" s="30"/>
+      <c r="D16" s="29">
         <v>1</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>3</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="29" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>47</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="30">
+      <c r="C17" s="30"/>
+      <c r="D17" s="29">
         <v>2</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>2</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="29" t="s">
+      <c r="G17" s="30"/>
+      <c r="H17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>53</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30">
+      <c r="C18" s="30"/>
+      <c r="D18" s="29">
         <v>3</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>1</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="29" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="43">
         <v>45</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43">
         <v>1</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <v>3</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="43" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="43">
         <v>47</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44">
+      <c r="C20" s="43"/>
+      <c r="D20" s="43">
         <v>2</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <v>2</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="43" t="s">
+      <c r="G20" s="43"/>
+      <c r="H20" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="43">
         <v>58</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43">
         <v>3</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <v>1</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="43" t="s">
+      <c r="G21" s="43"/>
+      <c r="H21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="44">
         <v>28</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38">
         <v>1</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="38">
         <v>2</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38" t="s">
+      <c r="G22" s="38"/>
+      <c r="H22" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="57">
         <v>44</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59">
+      <c r="C23" s="57"/>
+      <c r="D23" s="57">
         <v>2</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="57">
         <v>1</v>
       </c>
-      <c r="F23" s="93" t="s">
+      <c r="F23" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="58" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" thickTop="1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="60">
         <v>38</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60">
         <v>1</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="73">
         <v>5</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="86"/>
-      <c r="H24" s="67" t="s">
+      <c r="G24" s="77"/>
+      <c r="H24" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="68" t="s">
+      <c r="I24" s="62" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>60</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
         <v>5</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="74">
         <v>1</v>
       </c>
-      <c r="F25" s="90" t="s">
+      <c r="F25" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="46" t="s">
+      <c r="G25" s="78"/>
+      <c r="H25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="70" t="s">
+      <c r="I25" s="64" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>56</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
         <v>4</v>
       </c>
-      <c r="E26" s="83">
+      <c r="E26" s="74">
         <v>2</v>
       </c>
-      <c r="F26" s="90" t="s">
+      <c r="F26" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="87"/>
-      <c r="H26" s="46" t="s">
+      <c r="G26" s="78"/>
+      <c r="H26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="70" t="s">
+      <c r="I26" s="64" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>47</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
         <v>3</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="74">
         <v>3</v>
       </c>
-      <c r="F27" s="90" t="s">
+      <c r="F27" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="87"/>
-      <c r="H27" s="46" t="s">
+      <c r="G27" s="78"/>
+      <c r="H27" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="70" t="s">
+      <c r="I27" s="64" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>44</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
         <v>2</v>
       </c>
-      <c r="E28" s="83">
+      <c r="E28" s="74">
         <v>4</v>
       </c>
-      <c r="F28" s="90" t="s">
+      <c r="F28" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="46" t="s">
+      <c r="G28" s="78"/>
+      <c r="H28" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="70" t="s">
+      <c r="I28" s="64" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="54">
         <v>32</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54">
         <v>1</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="75">
         <v>5</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="88"/>
-      <c r="H29" s="57" t="s">
+      <c r="G29" s="79"/>
+      <c r="H29" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="66" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="54">
         <v>34</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54">
         <v>2</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="75">
         <v>4</v>
       </c>
-      <c r="F30" s="91" t="s">
+      <c r="F30" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="88"/>
-      <c r="H30" s="57" t="s">
+      <c r="G30" s="79"/>
+      <c r="H30" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="72" t="s">
+      <c r="I30" s="66" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="54">
         <v>35</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54">
         <v>3</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="75">
         <v>3</v>
       </c>
-      <c r="F31" s="91" t="s">
+      <c r="F31" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="88"/>
-      <c r="H31" s="57" t="s">
+      <c r="G31" s="79"/>
+      <c r="H31" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="72" t="s">
+      <c r="I31" s="66" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="54">
         <v>39</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56">
+      <c r="C32" s="54"/>
+      <c r="D32" s="54">
         <v>4</v>
       </c>
-      <c r="E32" s="84">
+      <c r="E32" s="75">
         <v>2</v>
       </c>
-      <c r="F32" s="91" t="s">
+      <c r="F32" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="88"/>
-      <c r="H32" s="57" t="s">
+      <c r="G32" s="79"/>
+      <c r="H32" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="72" t="s">
+      <c r="I32" s="66" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="69">
         <v>46</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75">
+      <c r="C33" s="69"/>
+      <c r="D33" s="69">
         <v>5</v>
       </c>
-      <c r="E33" s="85">
+      <c r="E33" s="76">
         <v>1</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="89"/>
-      <c r="H33" s="76" t="s">
+      <c r="G33" s="80"/>
+      <c r="H33" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="63"/>
+      <c r="A34" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="93">
+        <v>49</v>
+      </c>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93">
+        <v>11</v>
+      </c>
+      <c r="E34" s="93"/>
+      <c r="F34" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="93"/>
+      <c r="H34" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="92" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="A35" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="95">
+        <v>49</v>
+      </c>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95">
+        <v>11</v>
+      </c>
+      <c r="E35" s="95"/>
+      <c r="F35" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="95"/>
+      <c r="H35" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="92" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="95">
+        <v>53</v>
+      </c>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95">
+        <v>9</v>
+      </c>
+      <c r="E36" s="95"/>
+      <c r="F36" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="95"/>
+      <c r="H36" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="92" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
-      <c r="A37" s="54"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="A37" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="95">
+        <v>58</v>
+      </c>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95">
+        <v>8</v>
+      </c>
+      <c r="E37" s="95"/>
+      <c r="F37" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="95"/>
+      <c r="H37" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="92" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
-      <c r="A38" s="54"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="A38" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="95">
+        <v>61</v>
+      </c>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95">
+        <v>7</v>
+      </c>
+      <c r="E38" s="95"/>
+      <c r="F38" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="95"/>
+      <c r="H38" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="92" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
-      <c r="A39" s="54"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="A39" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="97">
+        <v>63</v>
+      </c>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97">
+        <v>5</v>
+      </c>
+      <c r="E39" s="97"/>
+      <c r="F39" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="97"/>
+      <c r="H39" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1">
+      <c r="A40" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="91">
+        <v>33</v>
+      </c>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91">
+        <v>9</v>
+      </c>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="91"/>
+      <c r="H40" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1">
+      <c r="A41" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="91">
+        <v>41</v>
+      </c>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91">
+        <v>7</v>
+      </c>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1">
+      <c r="A42" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="91">
+        <v>38</v>
+      </c>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91">
+        <v>8</v>
+      </c>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="91"/>
+      <c r="H42" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1">
+      <c r="A43" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="91">
+        <v>44</v>
+      </c>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91">
+        <v>4</v>
+      </c>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="91"/>
+      <c r="H43" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1">
+      <c r="A44" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="91">
+        <v>51</v>
+      </c>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91">
+        <v>2</v>
+      </c>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="91"/>
+      <c r="H44" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="89" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181100000000002" footer="0.3"/>
@@ -3602,98 +3828,98 @@
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="17.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="17.5" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="16.42578125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="16.42578125" style="6"/>
+    <col min="1" max="6" width="16.453125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="16.453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.45" customHeight="1">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:5" ht="26.5" customHeight="1">
+      <c r="A1" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.2" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12">
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11">
         <v>12.7</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.85" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.85" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.85" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.85" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.85" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.85" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.85" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.9" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.9" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.9" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.9" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.9" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.9" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.9" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3715,91 +3941,91 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.140625" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="10.140625" style="26"/>
+    <col min="1" max="1" width="21.453125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="60.453125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.1796875" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="10.1796875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1515,15 +1515,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="43" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="44" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="25" fillId="44" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="44" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1534,6 +1525,15 @@
     <xf numFmtId="49" fontId="25" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="25" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -2708,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
@@ -3556,255 +3556,277 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="93">
+      <c r="B34" s="90">
         <v>49</v>
       </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93">
+      <c r="C34" s="90"/>
+      <c r="D34" s="90">
+        <v>1</v>
+      </c>
+      <c r="E34" s="90">
         <v>11</v>
       </c>
-      <c r="E34" s="93"/>
-      <c r="F34" s="92" t="s">
+      <c r="F34" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="93"/>
-      <c r="H34" s="92" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="92" t="s">
+      <c r="I34" s="89" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="95">
+      <c r="B35" s="92">
         <v>49</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95">
+      <c r="C35" s="92"/>
+      <c r="D35" s="92">
+        <v>2</v>
+      </c>
+      <c r="E35" s="92">
         <v>11</v>
       </c>
-      <c r="E35" s="95"/>
-      <c r="F35" s="92" t="s">
+      <c r="F35" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="95"/>
-      <c r="H35" s="92" t="s">
+      <c r="G35" s="92"/>
+      <c r="H35" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="92" t="s">
+      <c r="I35" s="89" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="95">
+      <c r="B36" s="92">
         <v>53</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95">
+      <c r="C36" s="92"/>
+      <c r="D36" s="92">
+        <v>3</v>
+      </c>
+      <c r="E36" s="92">
         <v>9</v>
       </c>
-      <c r="E36" s="95"/>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="95"/>
-      <c r="H36" s="92" t="s">
+      <c r="G36" s="92"/>
+      <c r="H36" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="I36" s="92" t="s">
+      <c r="I36" s="89" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="95">
+      <c r="B37" s="92">
         <v>58</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95">
+      <c r="C37" s="92"/>
+      <c r="D37" s="92">
+        <v>4</v>
+      </c>
+      <c r="E37" s="92">
         <v>8</v>
       </c>
-      <c r="E37" s="95"/>
-      <c r="F37" s="92" t="s">
+      <c r="F37" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="95"/>
-      <c r="H37" s="92" t="s">
+      <c r="G37" s="92"/>
+      <c r="H37" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="92" t="s">
+      <c r="I37" s="89" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="95">
+      <c r="B38" s="92">
         <v>61</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95">
+      <c r="C38" s="92"/>
+      <c r="D38" s="92">
+        <v>5</v>
+      </c>
+      <c r="E38" s="92">
         <v>7</v>
       </c>
-      <c r="E38" s="95"/>
-      <c r="F38" s="92" t="s">
+      <c r="F38" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="95"/>
-      <c r="H38" s="92" t="s">
+      <c r="G38" s="92"/>
+      <c r="H38" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="92" t="s">
+      <c r="I38" s="89" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="97">
+      <c r="B39" s="94">
         <v>63</v>
       </c>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97">
+      <c r="C39" s="94"/>
+      <c r="D39" s="94">
+        <v>6</v>
+      </c>
+      <c r="E39" s="94">
         <v>5</v>
       </c>
-      <c r="E39" s="97"/>
-      <c r="F39" s="98" t="s">
+      <c r="F39" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="97"/>
-      <c r="H39" s="98" t="s">
+      <c r="G39" s="94"/>
+      <c r="H39" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="98" t="s">
+      <c r="I39" s="95" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="91">
+      <c r="B40" s="88">
         <v>33</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91">
+      <c r="C40" s="88"/>
+      <c r="D40" s="88">
+        <v>1</v>
+      </c>
+      <c r="E40" s="88">
         <v>9</v>
       </c>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91" t="s">
+      <c r="F40" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="91"/>
-      <c r="H40" s="89" t="s">
+      <c r="G40" s="88"/>
+      <c r="H40" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="89" t="s">
+      <c r="I40" s="86" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="91">
+      <c r="B41" s="88">
         <v>41</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91">
+      <c r="C41" s="88"/>
+      <c r="D41" s="88">
+        <v>3</v>
+      </c>
+      <c r="E41" s="88">
         <v>7</v>
       </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91" t="s">
+      <c r="F41" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="G41" s="91"/>
-      <c r="H41" s="89" t="s">
+      <c r="G41" s="88"/>
+      <c r="H41" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="89" t="s">
+      <c r="I41" s="86" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="91">
+      <c r="B42" s="88">
         <v>38</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91">
+      <c r="C42" s="88"/>
+      <c r="D42" s="88">
+        <v>2</v>
+      </c>
+      <c r="E42" s="88">
         <v>8</v>
       </c>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91" t="s">
+      <c r="F42" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="91"/>
-      <c r="H42" s="89" t="s">
+      <c r="G42" s="88"/>
+      <c r="H42" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="I42" s="89" t="s">
+      <c r="I42" s="86" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="91">
+      <c r="B43" s="88">
         <v>44</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91">
+      <c r="C43" s="88"/>
+      <c r="D43" s="88">
         <v>4</v>
       </c>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91" t="s">
+      <c r="E43" s="88">
+        <v>4</v>
+      </c>
+      <c r="F43" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="91"/>
-      <c r="H43" s="89" t="s">
+      <c r="G43" s="88"/>
+      <c r="H43" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="89" t="s">
+      <c r="I43" s="86" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="91">
+      <c r="B44" s="88">
         <v>51</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91">
+      <c r="C44" s="88"/>
+      <c r="D44" s="88">
+        <v>5</v>
+      </c>
+      <c r="E44" s="88">
         <v>2</v>
       </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91" t="s">
+      <c r="F44" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="91"/>
-      <c r="H44" s="89" t="s">
+      <c r="G44" s="88"/>
+      <c r="H44" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="I44" s="89" t="s">
+      <c r="I44" s="86" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3835,13 +3857,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.5" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:5" ht="15.4" customHeight="1">
       <c r="A2" s="6" t="s">

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -2709,7 +2709,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="88" t="s">
         <v>58</v>
@@ -3817,7 +3817,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="88" t="s">
         <v>58</v>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="50" windowWidth="12800" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="12800" windowHeight="10020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>Bobby Sharples</t>
   </si>
   <si>
-    <t>14 September 2025 | 13:00 - 13:30 Tee Times | Autumn Series Round 1</t>
-  </si>
-  <si>
     <t>April 9 Hole</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Stanley Habershow</t>
+  </si>
+  <si>
+    <t>19 October 2025 | 13:00 - 13:30 Tee Times | Autumn Series Round 1</t>
   </si>
 </sst>
 </file>
@@ -2708,7 +2708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -2770,7 +2770,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="31" t="s">
@@ -2795,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="31" t="s">
@@ -2820,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="31" t="s">
@@ -2845,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="31" t="s">
@@ -2870,7 +2870,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="31" t="s">
@@ -2895,7 +2895,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="31" t="s">
@@ -2920,7 +2920,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="31" t="s">
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="31" t="s">
@@ -2970,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="34" t="s">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="34" t="s">
@@ -3020,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="39" t="s">
@@ -3045,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="39" t="s">
@@ -3070,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="39" t="s">
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="39" t="s">
@@ -3120,7 +3120,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="28" t="s">
@@ -3145,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="28" t="s">
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="28" t="s">
@@ -3195,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="42" t="s">
@@ -3220,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="43"/>
       <c r="H20" s="42" t="s">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="42" t="s">
@@ -3270,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="37" t="s">
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="57"/>
       <c r="H23" s="58" t="s">
@@ -3320,7 +3320,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="77"/>
       <c r="H24" s="61" t="s">
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="78"/>
       <c r="H25" s="45" t="s">
@@ -3370,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="78"/>
       <c r="H26" s="45" t="s">
@@ -3395,7 +3395,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="78"/>
       <c r="H27" s="45" t="s">
@@ -3420,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="78"/>
       <c r="H28" s="45" t="s">
@@ -3445,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="79"/>
       <c r="H29" s="55" t="s">
@@ -3470,7 +3470,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="79"/>
       <c r="H30" s="55" t="s">
@@ -3495,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="79"/>
       <c r="H31" s="55" t="s">
@@ -3520,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="79"/>
       <c r="H32" s="55" t="s">
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="70" t="s">
@@ -3570,14 +3570,14 @@
         <v>11</v>
       </c>
       <c r="F34" s="89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="90"/>
       <c r="H34" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="89" t="s">
         <v>55</v>
-      </c>
-      <c r="I34" s="89" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
@@ -3595,14 +3595,14 @@
         <v>11</v>
       </c>
       <c r="F35" s="89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" s="92"/>
       <c r="H35" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="89" t="s">
         <v>55</v>
-      </c>
-      <c r="I35" s="89" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
@@ -3620,14 +3620,14 @@
         <v>9</v>
       </c>
       <c r="F36" s="89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="92"/>
       <c r="H36" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="89" t="s">
         <v>55</v>
-      </c>
-      <c r="I36" s="89" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
@@ -3645,14 +3645,14 @@
         <v>8</v>
       </c>
       <c r="F37" s="89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="92"/>
       <c r="H37" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="89" t="s">
         <v>55</v>
-      </c>
-      <c r="I37" s="89" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
@@ -3670,14 +3670,14 @@
         <v>7</v>
       </c>
       <c r="F38" s="89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" s="92"/>
       <c r="H38" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="89" t="s">
         <v>55</v>
-      </c>
-      <c r="I38" s="89" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
@@ -3695,14 +3695,14 @@
         <v>5</v>
       </c>
       <c r="F39" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G39" s="94"/>
       <c r="H39" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="95" t="s">
         <v>55</v>
-      </c>
-      <c r="I39" s="95" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
@@ -3720,14 +3720,14 @@
         <v>9</v>
       </c>
       <c r="F40" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G40" s="88"/>
       <c r="H40" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I40" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
@@ -3745,19 +3745,19 @@
         <v>7</v>
       </c>
       <c r="F41" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G41" s="88"/>
       <c r="H41" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I41" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
       <c r="A42" s="87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="88">
         <v>38</v>
@@ -3770,19 +3770,19 @@
         <v>8</v>
       </c>
       <c r="F42" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G42" s="88"/>
       <c r="H42" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I42" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
       <c r="A43" s="87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="88">
         <v>44</v>
@@ -3795,19 +3795,19 @@
         <v>5</v>
       </c>
       <c r="F43" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G43" s="88"/>
       <c r="H43" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I43" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
       <c r="A44" s="87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="88">
         <v>51</v>
@@ -3820,14 +3820,14 @@
         <v>3</v>
       </c>
       <c r="F44" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="88"/>
       <c r="H44" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I44" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3959,8 +3959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1"/>
@@ -3994,7 +3994,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="50" windowWidth="12800" windowHeight="10020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="12800" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2708,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="90">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F34" s="89" t="s">
         <v>53</v>
@@ -3592,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="92">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F35" s="89" t="s">
         <v>53</v>
@@ -3617,7 +3617,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F36" s="89" t="s">
         <v>53</v>
@@ -3642,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="92">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F37" s="89" t="s">
         <v>53</v>
@@ -3667,7 +3667,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="92">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F38" s="89" t="s">
         <v>53</v>
@@ -3692,7 +3692,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39" s="95" t="s">
         <v>53</v>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="88">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F40" s="88" t="s">
         <v>57</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F41" s="88" t="s">
         <v>57</v>
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="88">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F42" s="88" t="s">
         <v>57</v>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F43" s="88" t="s">
         <v>57</v>
@@ -3817,7 +3817,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" s="88" t="s">
         <v>57</v>
@@ -3959,7 +3959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -2709,7 +2709,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" s="88" t="s">
         <v>57</v>
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="88" t="s">
         <v>57</v>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -2709,7 +2709,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1"/>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="90">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F34" s="89" t="s">
         <v>53</v>
@@ -3592,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="92">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F35" s="89" t="s">
         <v>53</v>
@@ -3617,7 +3617,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="92">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F36" s="89" t="s">
         <v>53</v>
@@ -3642,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F37" s="89" t="s">
         <v>53</v>
@@ -3667,7 +3667,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" s="89" t="s">
         <v>53</v>
@@ -3692,7 +3692,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="95" t="s">
         <v>53</v>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="88">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F40" s="88" t="s">
         <v>57</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="88">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F41" s="88" t="s">
         <v>57</v>
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" s="88" t="s">
         <v>57</v>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="88" t="s">
         <v>57</v>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -237,9 +237,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -529,7 +530,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -647,6 +648,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1045,10 +1050,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B61" activeCellId="0" sqref="B61"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2485,7 +2490,9 @@
         <v>61</v>
       </c>
       <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="H57" s="30" t="n">
+        <v>45911</v>
+      </c>
       <c r="I57" s="29" t="s">
         <v>62</v>
       </c>
@@ -2506,7 +2513,9 @@
         <v>61</v>
       </c>
       <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="H58" s="30" t="n">
+        <v>45911</v>
+      </c>
       <c r="I58" s="29" t="s">
         <v>62</v>
       </c>
@@ -2527,7 +2536,9 @@
         <v>61</v>
       </c>
       <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
+      <c r="H59" s="30" t="n">
+        <v>45911</v>
+      </c>
       <c r="I59" s="29" t="s">
         <v>62</v>
       </c>
@@ -2548,7 +2559,9 @@
         <v>61</v>
       </c>
       <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="H60" s="30" t="n">
+        <v>45911</v>
+      </c>
       <c r="I60" s="29" t="s">
         <v>62</v>
       </c>
@@ -2569,7 +2582,9 @@
         <v>61</v>
       </c>
       <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="H61" s="30" t="n">
+        <v>45911</v>
+      </c>
       <c r="I61" s="29" t="s">
         <v>62</v>
       </c>
@@ -2590,106 +2605,106 @@
         <v>61</v>
       </c>
       <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="H62" s="30" t="n">
+        <v>45911</v>
+      </c>
       <c r="I62" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
+      <c r="A63" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="32"/>
+      <c r="H63" s="30" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31" t="s">
+      <c r="A64" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="32" t="n">
+        <v>34</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31" t="s">
+      <c r="G64" s="32"/>
+      <c r="H64" s="30" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I64" s="32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="31" t="n">
-        <v>34</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31" t="s">
+      <c r="A65" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="32" t="n">
+        <v>41</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31" t="s">
+      <c r="G65" s="32"/>
+      <c r="H65" s="30" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I65" s="32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="31" t="n">
-        <v>41</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31" t="s">
+      <c r="A66" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="32" t="n">
+        <v>44</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31" t="s">
+      <c r="G66" s="32"/>
+      <c r="H66" s="30" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I66" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="31" t="n">
-        <v>44</v>
-      </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:I56"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2710,7 +2725,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2722,82 +2737,82 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Settings" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$56</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$66</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="70">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t xml:space="preserve">12  April 2026 | 13:00 - 14:00 Tee Times | Spring Round 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Season</t>
   </si>
 </sst>
 </file>
@@ -239,10 +242,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="[$-809]dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -276,6 +279,13 @@
       <color rgb="FF9C5700"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -477,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -529,13 +539,31 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,127 +571,175 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="17" borderId="2" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="19" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="2" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="19" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="19" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,12 +747,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -692,8 +768,14 @@
     <cellStyle name="Neutral 2" xfId="26"/>
     <cellStyle name="Normal 2" xfId="27"/>
     <cellStyle name="Note 2" xfId="28"/>
+    <cellStyle name="Pivot Table Category" xfId="29"/>
+    <cellStyle name="Pivot Table Corner" xfId="30"/>
+    <cellStyle name="Pivot Table Field" xfId="31"/>
+    <cellStyle name="Pivot Table Result" xfId="32"/>
+    <cellStyle name="Pivot Table Title" xfId="33"/>
+    <cellStyle name="Pivot Table Value" xfId="34"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -770,6 +852,22 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFDEADA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF972F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFB66C"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1050,10 +1148,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M59" activeCellId="0" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1065,1648 +1163,1667 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="31.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="37.75"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="2" width="8.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="n">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="n">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="9" t="n">
         <v>74</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="n">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="9" t="n">
         <v>78</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="n">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="9" t="n">
         <v>79</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="n">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="n">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="n">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="n">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="15" t="n">
         <v>57</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="n">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="15" t="n">
         <v>65</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="n">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="15" t="n">
         <v>76</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="n">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="n">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="18" t="n">
         <v>47</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="n">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="13" t="n">
+      <c r="E17" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="18" t="n">
         <v>53</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="n">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="15" t="n">
+      <c r="B19" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="n">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="21" t="n">
         <v>47</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="n">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="15" t="n">
+      <c r="E20" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="21" t="n">
         <v>58</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="n">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B22" s="24" t="n">
         <v>28</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="n">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="17" t="n">
+      <c r="E22" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="B23" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="n">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="17" t="n">
+      <c r="E23" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="16" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="19" t="n">
+      <c r="B24" s="27" t="n">
         <v>38</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="n">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="19" t="n">
+      <c r="E24" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20" t="s">
+      <c r="G24" s="27"/>
+      <c r="H24" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="19" t="n">
+      <c r="B25" s="27" t="n">
         <v>60</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="n">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="19" t="n">
+      <c r="E25" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20" t="s">
+      <c r="G25" s="27"/>
+      <c r="H25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="19" t="n">
+      <c r="B26" s="27" t="n">
         <v>56</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="n">
+      <c r="C26" s="27"/>
+      <c r="D26" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="19" t="n">
+      <c r="E26" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="19" t="n">
+      <c r="B27" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="n">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="E27" s="19" t="n">
+      <c r="E27" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20" t="s">
+      <c r="G27" s="27"/>
+      <c r="H27" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="19" t="n">
+      <c r="B28" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19" t="n">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="19" t="n">
+      <c r="E28" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20" t="s">
+      <c r="G28" s="27"/>
+      <c r="H28" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="22" t="n">
+      <c r="B29" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="n">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="22" t="n">
+      <c r="E29" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
+      <c r="G29" s="31"/>
+      <c r="H29" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="22" t="n">
+      <c r="B30" s="31" t="n">
         <v>34</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="n">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="E30" s="22" t="n">
+      <c r="E30" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23" t="s">
+      <c r="G30" s="31"/>
+      <c r="H30" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="31" t="n">
         <v>35</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="n">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="E31" s="22" t="n">
+      <c r="E31" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="22" t="n">
+      <c r="B32" s="31" t="n">
         <v>39</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="n">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="E32" s="22" t="n">
+      <c r="E32" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23" t="s">
+      <c r="G32" s="31"/>
+      <c r="H32" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="22" t="n">
+      <c r="B33" s="31" t="n">
         <v>46</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="n">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E33" s="22" t="n">
+      <c r="E33" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23" t="s">
+      <c r="G33" s="31"/>
+      <c r="H33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="13" t="n">
+      <c r="B34" s="18" t="n">
         <v>49</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="n">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="13" t="n">
+      <c r="E34" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="13" t="n">
+      <c r="B35" s="18" t="n">
         <v>49</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13" t="n">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E35" s="13" t="n">
+      <c r="E35" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="12" t="s">
+      <c r="G35" s="18"/>
+      <c r="H35" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="13" t="n">
+      <c r="B36" s="18" t="n">
         <v>53</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13" t="n">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="E36" s="13" t="n">
+      <c r="E36" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="12" t="s">
+      <c r="G36" s="18"/>
+      <c r="H36" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="13" t="n">
+      <c r="B37" s="18" t="n">
         <v>58</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13" t="n">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="13" t="n">
+      <c r="E37" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="12" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="13" t="n">
+      <c r="B38" s="18" t="n">
         <v>61</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13" t="n">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="E38" s="13" t="n">
+      <c r="E38" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="12" t="s">
+      <c r="G38" s="18"/>
+      <c r="H38" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="13" t="n">
+      <c r="B39" s="18" t="n">
         <v>63</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13" t="n">
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="E39" s="13" t="n">
+      <c r="E39" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="12" t="s">
+      <c r="G39" s="18"/>
+      <c r="H39" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="25" t="n">
+      <c r="B40" s="35" t="n">
         <v>33</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25" t="n">
+      <c r="C40" s="35"/>
+      <c r="D40" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="25" t="n">
+      <c r="E40" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="24" t="s">
+      <c r="G40" s="35"/>
+      <c r="H40" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="25" t="n">
+      <c r="B41" s="35" t="n">
         <v>41</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25" t="n">
+      <c r="C41" s="35"/>
+      <c r="D41" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="25" t="n">
+      <c r="E41" s="35" t="n">
         <v>7</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="24" t="s">
+      <c r="G41" s="35"/>
+      <c r="H41" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="25" t="n">
+      <c r="B42" s="35" t="n">
         <v>38</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25" t="n">
+      <c r="C42" s="35"/>
+      <c r="D42" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="E42" s="25" t="n">
+      <c r="E42" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="24" t="s">
+      <c r="G42" s="35"/>
+      <c r="H42" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="25" t="n">
+      <c r="B43" s="35" t="n">
         <v>44</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25" t="n">
+      <c r="C43" s="35"/>
+      <c r="D43" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="25" t="n">
+      <c r="E43" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="24" t="s">
+      <c r="G43" s="35"/>
+      <c r="H43" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="25" t="n">
+      <c r="B44" s="35" t="n">
         <v>51</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25" t="n">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="25" t="n">
+      <c r="E44" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="24" t="s">
+      <c r="G44" s="35"/>
+      <c r="H44" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="26" t="n">
+      <c r="B45" s="37" t="n">
         <v>45</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26" t="n">
+      <c r="C45" s="37"/>
+      <c r="D45" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="26" t="n">
+      <c r="E45" s="37" t="n">
         <v>12</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26" t="s">
+      <c r="G45" s="37"/>
+      <c r="H45" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="I45" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="26" t="n">
+      <c r="B46" s="37" t="n">
         <v>58</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26" t="n">
+      <c r="C46" s="37"/>
+      <c r="D46" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="E46" s="26" t="n">
+      <c r="E46" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26" t="s">
+      <c r="G46" s="37"/>
+      <c r="H46" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="I46" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="26" t="n">
+      <c r="B47" s="37" t="n">
         <v>56</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26" t="n">
+      <c r="C47" s="37"/>
+      <c r="D47" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="E47" s="26" t="n">
+      <c r="E47" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26" t="s">
+      <c r="G47" s="37"/>
+      <c r="H47" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I47" s="26" t="s">
+      <c r="I47" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="26" t="n">
+      <c r="B48" s="37" t="n">
         <v>48</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26" t="n">
+      <c r="C48" s="37"/>
+      <c r="D48" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="26" t="n">
+      <c r="E48" s="37" t="n">
         <v>11</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26" t="s">
+      <c r="G48" s="37"/>
+      <c r="H48" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="I48" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="26" t="n">
+      <c r="B49" s="37" t="n">
         <v>51</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26" t="n">
+      <c r="C49" s="37"/>
+      <c r="D49" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="E49" s="26" t="n">
+      <c r="E49" s="37" t="n">
         <v>9</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26" t="s">
+      <c r="G49" s="37"/>
+      <c r="H49" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I49" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="26" t="n">
+      <c r="B50" s="37" t="n">
         <v>66</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26" t="n">
+      <c r="C50" s="37"/>
+      <c r="D50" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="E50" s="26" t="n">
+      <c r="E50" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26" t="s">
+      <c r="G50" s="37"/>
+      <c r="H50" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="I50" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="26" t="n">
+      <c r="B51" s="37" t="n">
         <v>62</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26" t="n">
+      <c r="C51" s="37"/>
+      <c r="D51" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="E51" s="26" t="n">
+      <c r="E51" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26" t="s">
+      <c r="G51" s="37"/>
+      <c r="H51" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I51" s="26" t="s">
+      <c r="I51" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="26" t="n">
+      <c r="B52" s="37" t="n">
         <v>55</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26" t="n">
+      <c r="C52" s="37"/>
+      <c r="D52" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="26" t="n">
+      <c r="E52" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26" t="s">
+      <c r="G52" s="37"/>
+      <c r="H52" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I52" s="26" t="s">
+      <c r="I52" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="27" t="n">
+      <c r="B53" s="39" t="n">
         <v>32</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27" t="n">
+      <c r="C53" s="39"/>
+      <c r="D53" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="27" t="n">
+      <c r="E53" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27" t="s">
+      <c r="G53" s="39"/>
+      <c r="H53" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="I53" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="27" t="n">
+      <c r="B54" s="39" t="n">
         <v>34</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27" t="n">
+      <c r="C54" s="39"/>
+      <c r="D54" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="E54" s="27" t="n">
+      <c r="E54" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27" t="s">
+      <c r="G54" s="39"/>
+      <c r="H54" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="27" t="n">
+      <c r="B55" s="39" t="n">
         <v>49</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27" t="n">
+      <c r="C55" s="39"/>
+      <c r="D55" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="E55" s="27" t="n">
+      <c r="E55" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27" t="s">
+      <c r="G55" s="39"/>
+      <c r="H55" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="I55" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="27" t="n">
+      <c r="B56" s="39" t="n">
         <v>37</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27" t="n">
+      <c r="C56" s="39"/>
+      <c r="D56" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="E56" s="27" t="n">
+      <c r="E56" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F56" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27" t="s">
+      <c r="G56" s="39"/>
+      <c r="H56" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="27" t="s">
+      <c r="I56" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="29" t="n">
+      <c r="B57" s="41" t="n">
         <v>47</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29" t="n">
+      <c r="C57" s="41"/>
+      <c r="D57" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29" t="s">
+      <c r="E57" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30" t="n">
-        <v>45911</v>
-      </c>
-      <c r="I57" s="29" t="s">
+      <c r="G57" s="41"/>
+      <c r="H57" s="42" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I57" s="41" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="29" t="n">
+      <c r="B58" s="41" t="n">
         <v>48</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29" t="n">
+      <c r="C58" s="41"/>
+      <c r="D58" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29" t="s">
+      <c r="E58" s="41" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30" t="n">
-        <v>45911</v>
-      </c>
-      <c r="I58" s="29" t="s">
+      <c r="G58" s="41"/>
+      <c r="H58" s="42" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I58" s="41" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="29" t="n">
+      <c r="B59" s="41" t="n">
         <v>48</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29" t="n">
+      <c r="C59" s="41"/>
+      <c r="D59" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29" t="s">
+      <c r="E59" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F59" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30" t="n">
-        <v>45911</v>
-      </c>
-      <c r="I59" s="29" t="s">
+      <c r="G59" s="41"/>
+      <c r="H59" s="42" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I59" s="41" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="29" t="n">
+      <c r="B60" s="41" t="n">
         <v>49</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29" t="n">
+      <c r="C60" s="41"/>
+      <c r="D60" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29" t="s">
+      <c r="E60" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30" t="n">
-        <v>45911</v>
-      </c>
-      <c r="I60" s="29" t="s">
+      <c r="G60" s="41"/>
+      <c r="H60" s="42" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I60" s="41" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="29" t="n">
+      <c r="B61" s="41" t="n">
         <v>52</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29" t="n">
+      <c r="C61" s="41"/>
+      <c r="D61" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29" t="s">
+      <c r="E61" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30" t="n">
-        <v>45911</v>
-      </c>
-      <c r="I61" s="29" t="s">
+      <c r="G61" s="41"/>
+      <c r="H61" s="42" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I61" s="41" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="29" t="n">
+      <c r="B62" s="41" t="n">
         <v>62</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29" t="n">
+      <c r="C62" s="41"/>
+      <c r="D62" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29" t="s">
+      <c r="E62" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30" t="n">
-        <v>45911</v>
-      </c>
-      <c r="I62" s="29" t="s">
+      <c r="G62" s="41"/>
+      <c r="H62" s="42" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I62" s="41" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="32" t="n">
+      <c r="B63" s="43" t="n">
         <v>30</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32" t="n">
+      <c r="C63" s="43"/>
+      <c r="D63" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32" t="s">
+      <c r="E63" s="43" t="n">
+        <v>9</v>
+      </c>
+      <c r="F63" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="32"/>
-      <c r="H63" s="30" t="n">
-        <v>45911</v>
-      </c>
-      <c r="I63" s="32" t="s">
+      <c r="G63" s="43"/>
+      <c r="H63" s="44" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I63" s="43" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="32" t="n">
+      <c r="B64" s="43" t="n">
         <v>34</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32" t="n">
+      <c r="C64" s="43"/>
+      <c r="D64" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32" t="s">
+      <c r="E64" s="43" t="n">
+        <v>7</v>
+      </c>
+      <c r="F64" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G64" s="32"/>
-      <c r="H64" s="30" t="n">
-        <v>45911</v>
-      </c>
-      <c r="I64" s="32" t="s">
+      <c r="G64" s="43"/>
+      <c r="H64" s="44" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I64" s="43" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="32" t="n">
+      <c r="B65" s="43" t="n">
         <v>41</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32" t="n">
+      <c r="C65" s="43"/>
+      <c r="D65" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32" t="s">
+      <c r="E65" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G65" s="32"/>
-      <c r="H65" s="30" t="n">
-        <v>45911</v>
-      </c>
-      <c r="I65" s="32" t="s">
+      <c r="G65" s="43"/>
+      <c r="H65" s="44" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I65" s="43" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="32" t="n">
+      <c r="B66" s="43" t="n">
         <v>44</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32" t="n">
+      <c r="C66" s="43"/>
+      <c r="D66" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32" t="s">
+      <c r="E66" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G66" s="32"/>
-      <c r="H66" s="30" t="n">
-        <v>45911</v>
-      </c>
-      <c r="I66" s="32" t="s">
+      <c r="G66" s="43"/>
+      <c r="H66" s="44" t="n">
+        <v>45970</v>
+      </c>
+      <c r="I66" s="43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I56"/>
+  <autoFilter ref="A1:I66"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2726,7 +2843,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2737,82 +2854,86 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="83">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -224,7 +224,40 @@
     <t xml:space="preserve">November Junior Competitions Sixes</t>
   </si>
   <si>
+    <t xml:space="preserve">2026 Test Player 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">13/04/2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 11</t>
   </si>
   <si>
     <t xml:space="preserve">Key</t>
@@ -1157,7 +1190,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2805,7 +2838,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="43" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B66" s="43" t="n">
         <v>44</v>
@@ -2829,8 +2862,8 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
-        <v>9</v>
+      <c r="A67" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="B67" s="9" t="n">
         <v>47</v>
@@ -2847,15 +2880,15 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="s">
-        <v>15</v>
+      <c r="A68" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="B68" s="9" t="n">
         <v>53</v>
@@ -2872,15 +2905,15 @@
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
-        <v>17</v>
+      <c r="A69" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="B69" s="9" t="n">
         <v>55</v>
@@ -2897,15 +2930,15 @@
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
-        <v>19</v>
+      <c r="A70" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="B70" s="9" t="n">
         <v>56</v>
@@ -2922,15 +2955,15 @@
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
-        <v>20</v>
+      <c r="A71" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="B71" s="9" t="n">
         <v>60</v>
@@ -2947,15 +2980,15 @@
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
-        <v>29</v>
+      <c r="A72" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="B72" s="9" t="n">
         <v>74</v>
@@ -2972,15 +3005,15 @@
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
-        <v>23</v>
+      <c r="A73" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="B73" s="9" t="n">
         <v>78</v>
@@ -2997,15 +3030,15 @@
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="s">
-        <v>9</v>
+      <c r="A74" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="B74" s="9" t="n">
         <v>79</v>
@@ -3022,15 +3055,15 @@
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="20" t="s">
-        <v>33</v>
+      <c r="A75" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="B75" s="12" t="n">
         <v>30</v>
@@ -3047,7 +3080,7 @@
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>22</v>
@@ -3055,7 +3088,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="43" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B76" s="12" t="n">
         <v>45</v>
@@ -3072,7 +3105,7 @@
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>22</v>
@@ -3099,7 +3132,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3111,10 +3144,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
@@ -3129,10 +3162,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="45" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -3140,10 +3173,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="46" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B4" s="46" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="83">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -224,7 +224,40 @@
     <t xml:space="preserve">November Junior Competitions Sixes</t>
   </si>
   <si>
+    <t xml:space="preserve">2026 Test Player 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">13/04/2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Test Player 11</t>
   </si>
   <si>
     <t xml:space="preserve">Key</t>
@@ -1157,7 +1190,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+      <selection pane="topLeft" activeCell="H83" activeCellId="0" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2805,7 +2838,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="43" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B66" s="43" t="n">
         <v>44</v>
@@ -2821,16 +2854,16 @@
         <v>64</v>
       </c>
       <c r="G66" s="43"/>
-      <c r="H66" s="44" t="s">
-        <v>62</v>
+      <c r="H66" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="I66" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
-        <v>9</v>
+      <c r="A67" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="B67" s="9" t="n">
         <v>47</v>
@@ -2847,15 +2880,15 @@
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="s">
-        <v>15</v>
+      <c r="A68" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="B68" s="9" t="n">
         <v>53</v>
@@ -2872,15 +2905,15 @@
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
-        <v>17</v>
+      <c r="A69" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="B69" s="9" t="n">
         <v>55</v>
@@ -2897,15 +2930,15 @@
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
-        <v>19</v>
+      <c r="A70" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="B70" s="9" t="n">
         <v>56</v>
@@ -2922,15 +2955,15 @@
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
-        <v>20</v>
+      <c r="A71" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="B71" s="9" t="n">
         <v>60</v>
@@ -2947,15 +2980,15 @@
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
-        <v>29</v>
+      <c r="A72" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="B72" s="9" t="n">
         <v>74</v>
@@ -2972,15 +3005,15 @@
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
-        <v>23</v>
+      <c r="A73" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="B73" s="9" t="n">
         <v>78</v>
@@ -2997,15 +3030,15 @@
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="s">
-        <v>9</v>
+      <c r="A74" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="B74" s="9" t="n">
         <v>79</v>
@@ -3022,15 +3055,15 @@
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="20" t="s">
-        <v>33</v>
+      <c r="A75" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="B75" s="12" t="n">
         <v>30</v>
@@ -3047,7 +3080,7 @@
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>22</v>
@@ -3055,7 +3088,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="43" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B76" s="12" t="n">
         <v>45</v>
@@ -3072,7 +3105,7 @@
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>22</v>
@@ -3099,7 +3132,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3111,10 +3144,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
@@ -3129,10 +3162,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="45" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -3140,10 +3173,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="46" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B4" s="46" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -227,7 +227,7 @@
     <t xml:space="preserve">October Junior Competition Sixes</t>
   </si>
   <si>
-    <t xml:space="preserve">Frankie</t>
+    <t xml:space="preserve">Frankie Wright</t>
   </si>
   <si>
     <t xml:space="preserve">November 9 Hole</t>
@@ -630,7 +630,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -845,6 +845,10 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1272,10 +1276,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L86" activeCellId="0" sqref="L86"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I88" activeCellId="0" sqref="A88:I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3422,7 +3426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="51" t="s">
         <v>73</v>
       </c>
@@ -3472,7 +3476,7 @@
       <c r="I78" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J78" s="0"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="51" t="s">
@@ -3498,7 +3502,7 @@
       <c r="I79" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J79" s="0"/>
+      <c r="J79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="51" t="s">
@@ -3524,7 +3528,7 @@
       <c r="I80" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J80" s="0"/>
+      <c r="J80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="51" t="s">
@@ -3550,7 +3554,7 @@
       <c r="I81" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J81" s="0"/>
+      <c r="J81" s="13"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="51" t="s">
@@ -3576,7 +3580,7 @@
       <c r="I82" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J82" s="0"/>
+      <c r="J82" s="13"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="51" t="s">
@@ -3602,7 +3606,7 @@
       <c r="I83" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J83" s="0"/>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="51" t="s">
@@ -3628,7 +3632,7 @@
       <c r="I84" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J84" s="0"/>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="51" t="s">
@@ -3654,7 +3658,7 @@
       <c r="I85" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J85" s="0"/>
+      <c r="J85" s="13"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="51" t="s">
@@ -3680,7 +3684,7 @@
       <c r="I86" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="J86" s="0"/>
+      <c r="J86" s="13"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="51" t="s">
@@ -3706,7 +3710,216 @@
       <c r="I87" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="J87" s="0"/>
+      <c r="J87" s="13"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="54"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="54"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="54"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="54"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="54"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="54"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="54"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I77"/>
@@ -3728,8 +3941,8 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="A88:I95 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3740,86 +3953,86 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="55" t="n">
+      <c r="B4" s="56" t="n">
         <v>2025</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
